--- a/data/source/fr_dc_age_sex/xlsx/2006_dc_age_sex_e.xlsx
+++ b/data/source/fr_dc_age_sex/xlsx/2006_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="28060" windowHeight="15700"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -2565,50 +2573,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>Grand Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>63,702   304,409    134,113</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF33339A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>107,610   151,509   158,116</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF33339A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>244,038   49,514</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>135,202   143,724    178,958   312,117</t>
     </r>
   </si>
   <si>
@@ -3302,6 +3266,93 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3341,111 +3392,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3734,89 +3703,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.19921875" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" customWidth="1"/>
-    <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="6.796875" customWidth="1"/>
+    <col min="17" max="17" width="7.19921875" customWidth="1"/>
+    <col min="18" max="18" width="7.3984375" customWidth="1"/>
+    <col min="19" max="19" width="5.3984375" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" customWidth="1"/>
+    <col min="21" max="21" width="6.19921875" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="6.3984375" customWidth="1"/>
+    <col min="24" max="24" width="6.19921875" customWidth="1"/>
+    <col min="25" max="25" width="7.3984375" customWidth="1"/>
+    <col min="26" max="26" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="75" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="75" t="s">
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="84" t="s">
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="113" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3841,7 +3810,7 @@
       <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="73" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -3886,14 +3855,14 @@
       <c r="Y2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="85"/>
+      <c r="Z2" s="114"/>
     </row>
-    <row r="3" spans="1:26" ht="8" customHeight="1">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>154</v>
+      <c r="B3" s="92" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="10">
         <v>605</v>
@@ -3907,7 +3876,7 @@
       <c r="F3" s="13">
         <v>952</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="94" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="14">
@@ -3919,7 +3888,7 @@
       <c r="J3" s="16">
         <v>1001</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="94" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="17">
@@ -3928,7 +3897,7 @@
       <c r="M3" s="18">
         <v>1936</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="14">
@@ -3946,7 +3915,7 @@
       <c r="S3" s="19">
         <v>312</v>
       </c>
-      <c r="T3" s="110" t="s">
+      <c r="T3" s="94" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="20">
@@ -3961,16 +3930,16 @@
       <c r="X3" s="21">
         <v>2593</v>
       </c>
-      <c r="Y3" s="90" t="s">
+      <c r="Y3" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="92" t="s">
+      <c r="Z3" s="98" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="8" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="89"/>
+    <row r="4" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="101"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="22">
         <v>642</v>
       </c>
@@ -3983,7 +3952,7 @@
       <c r="F4" s="25">
         <v>851</v>
       </c>
-      <c r="G4" s="111"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="26">
         <v>698</v>
       </c>
@@ -3993,14 +3962,14 @@
       <c r="J4" s="28">
         <v>984</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="29">
         <v>1656</v>
       </c>
       <c r="M4" s="30">
         <v>2174</v>
       </c>
-      <c r="N4" s="111"/>
+      <c r="N4" s="95"/>
       <c r="O4" s="26">
         <v>876</v>
       </c>
@@ -4016,7 +3985,7 @@
       <c r="S4" s="31">
         <v>346</v>
       </c>
-      <c r="T4" s="111"/>
+      <c r="T4" s="95"/>
       <c r="U4" s="32">
         <v>1504</v>
       </c>
@@ -4029,14 +3998,14 @@
       <c r="X4" s="33">
         <v>2603</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="93"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="99"/>
     </row>
-    <row r="5" spans="1:26" ht="8" customHeight="1">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="34">
         <v>1247</v>
       </c>
@@ -4049,7 +4018,7 @@
       <c r="F5" s="37">
         <v>1803</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="77">
         <v>7351</v>
       </c>
       <c r="H5" s="39">
@@ -4061,7 +4030,7 @@
       <c r="J5" s="41">
         <v>1985</v>
       </c>
-      <c r="K5" s="112">
+      <c r="K5" s="74">
         <v>5543</v>
       </c>
       <c r="L5" s="42">
@@ -4070,7 +4039,7 @@
       <c r="M5" s="37">
         <v>4110</v>
       </c>
-      <c r="N5" s="115">
+      <c r="N5" s="77">
         <v>7268</v>
       </c>
       <c r="O5" s="39">
@@ -4088,7 +4057,7 @@
       <c r="S5" s="43">
         <v>658</v>
       </c>
-      <c r="T5" s="112">
+      <c r="T5" s="74">
         <v>16697</v>
       </c>
       <c r="U5" s="34">
@@ -4110,12 +4079,12 @@
         <v>51313</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="8" customHeight="1">
-      <c r="A6" s="86" t="s">
+    <row r="6" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>155</v>
+      <c r="B6" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="20">
         <v>2866</v>
@@ -4129,7 +4098,7 @@
       <c r="F6" s="18">
         <v>4272</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="47">
@@ -4141,7 +4110,7 @@
       <c r="J6" s="16">
         <v>4017</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="94" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="17">
@@ -4150,7 +4119,7 @@
       <c r="M6" s="18">
         <v>8641</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="94" t="s">
         <v>39</v>
       </c>
       <c r="O6" s="47">
@@ -4168,7 +4137,7 @@
       <c r="S6" s="48">
         <v>1511</v>
       </c>
-      <c r="T6" s="110" t="s">
+      <c r="T6" s="94" t="s">
         <v>40</v>
       </c>
       <c r="U6" s="20">
@@ -4186,13 +4155,13 @@
       <c r="Y6" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="92" t="s">
+      <c r="Z6" s="98" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="8" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="89"/>
+    <row r="7" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="101"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="32">
         <v>2718</v>
       </c>
@@ -4205,7 +4174,7 @@
       <c r="F7" s="30">
         <v>4122</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="49">
         <v>2675</v>
       </c>
@@ -4215,14 +4184,14 @@
       <c r="J7" s="50">
         <v>3753</v>
       </c>
-      <c r="K7" s="111"/>
+      <c r="K7" s="95"/>
       <c r="L7" s="29">
         <v>6164</v>
       </c>
       <c r="M7" s="30">
         <v>8868</v>
       </c>
-      <c r="N7" s="111"/>
+      <c r="N7" s="95"/>
       <c r="O7" s="49">
         <v>3125</v>
       </c>
@@ -4238,7 +4207,7 @@
       <c r="S7" s="51">
         <v>1339</v>
       </c>
-      <c r="T7" s="111"/>
+      <c r="T7" s="95"/>
       <c r="U7" s="32">
         <v>5379</v>
       </c>
@@ -4252,13 +4221,13 @@
         <v>10860</v>
       </c>
       <c r="Y7" s="97"/>
-      <c r="Z7" s="93"/>
+      <c r="Z7" s="99"/>
     </row>
-    <row r="8" spans="1:26" ht="8" customHeight="1">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="34">
         <v>5584</v>
       </c>
@@ -4271,7 +4240,7 @@
       <c r="F8" s="37">
         <v>8394</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="77">
         <v>33086</v>
       </c>
       <c r="H8" s="39">
@@ -4283,7 +4252,7 @@
       <c r="J8" s="41">
         <v>7770</v>
       </c>
-      <c r="K8" s="112">
+      <c r="K8" s="74">
         <v>21937</v>
       </c>
       <c r="L8" s="42">
@@ -4292,7 +4261,7 @@
       <c r="M8" s="37">
         <v>17509</v>
       </c>
-      <c r="N8" s="115">
+      <c r="N8" s="77">
         <v>30041</v>
       </c>
       <c r="O8" s="39">
@@ -4310,7 +4279,7 @@
       <c r="S8" s="52">
         <v>2850</v>
       </c>
-      <c r="T8" s="112">
+      <c r="T8" s="74">
         <v>58086</v>
       </c>
       <c r="U8" s="34">
@@ -4332,12 +4301,12 @@
         <v>200157</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="8" customHeight="1">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>155</v>
+      <c r="B9" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="C9" s="20">
         <v>3787</v>
@@ -4351,7 +4320,7 @@
       <c r="F9" s="18">
         <v>4553</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="94" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="47">
@@ -4363,7 +4332,7 @@
       <c r="J9" s="16">
         <v>5379</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="94" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="17">
@@ -4372,7 +4341,7 @@
       <c r="M9" s="18">
         <v>10227</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="94" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="47">
@@ -4390,7 +4359,7 @@
       <c r="S9" s="48">
         <v>1796</v>
       </c>
-      <c r="T9" s="110" t="s">
+      <c r="T9" s="94" t="s">
         <v>48</v>
       </c>
       <c r="U9" s="20">
@@ -4408,13 +4377,13 @@
       <c r="Y9" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="92" t="s">
+      <c r="Z9" s="98" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="8" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
+    <row r="10" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="101"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="32">
         <v>3607</v>
       </c>
@@ -4427,7 +4396,7 @@
       <c r="F10" s="30">
         <v>4674</v>
       </c>
-      <c r="G10" s="111"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="53">
         <v>4480</v>
       </c>
@@ -4437,14 +4406,14 @@
       <c r="J10" s="55">
         <v>5431</v>
       </c>
-      <c r="K10" s="111"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="29">
         <v>7572</v>
       </c>
       <c r="M10" s="30">
         <v>10762</v>
       </c>
-      <c r="N10" s="111"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="49">
         <v>5028</v>
       </c>
@@ -4460,7 +4429,7 @@
       <c r="S10" s="51">
         <v>1906</v>
       </c>
-      <c r="T10" s="111"/>
+      <c r="T10" s="95"/>
       <c r="U10" s="32">
         <v>5135</v>
       </c>
@@ -4474,13 +4443,13 @@
         <v>14085</v>
       </c>
       <c r="Y10" s="97"/>
-      <c r="Z10" s="93"/>
+      <c r="Z10" s="99"/>
     </row>
-    <row r="11" spans="1:26" ht="8" customHeight="1">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="34">
         <v>7394</v>
       </c>
@@ -4493,7 +4462,7 @@
       <c r="F11" s="37">
         <v>9227</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="77">
         <v>42032</v>
       </c>
       <c r="H11" s="56">
@@ -4505,7 +4474,7 @@
       <c r="J11" s="58">
         <v>10810</v>
       </c>
-      <c r="K11" s="112">
+      <c r="K11" s="74">
         <v>30016</v>
       </c>
       <c r="L11" s="42">
@@ -4514,7 +4483,7 @@
       <c r="M11" s="37">
         <v>20989</v>
       </c>
-      <c r="N11" s="115">
+      <c r="N11" s="77">
         <v>35841</v>
       </c>
       <c r="O11" s="39">
@@ -4532,7 +4501,7 @@
       <c r="S11" s="52">
         <v>3702</v>
       </c>
-      <c r="T11" s="112">
+      <c r="T11" s="74">
         <v>74475</v>
       </c>
       <c r="U11" s="34">
@@ -4554,12 +4523,12 @@
         <v>245113</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="8" customHeight="1">
-      <c r="A12" s="86" t="s">
+    <row r="12" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>156</v>
+      <c r="B12" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C12" s="20">
         <v>4622</v>
@@ -4573,7 +4542,7 @@
       <c r="F12" s="18">
         <v>5223</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="94" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="47">
@@ -4585,7 +4554,7 @@
       <c r="J12" s="16">
         <v>6546</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="94" t="s">
         <v>54</v>
       </c>
       <c r="L12" s="17">
@@ -4594,7 +4563,7 @@
       <c r="M12" s="18">
         <v>10682</v>
       </c>
-      <c r="N12" s="110" t="s">
+      <c r="N12" s="94" t="s">
         <v>55</v>
       </c>
       <c r="O12" s="47">
@@ -4612,7 +4581,7 @@
       <c r="S12" s="48">
         <v>2324</v>
       </c>
-      <c r="T12" s="110" t="s">
+      <c r="T12" s="94" t="s">
         <v>56</v>
       </c>
       <c r="U12" s="20">
@@ -4630,13 +4599,13 @@
       <c r="Y12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="92" t="s">
+      <c r="Z12" s="98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="8" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="89"/>
+    <row r="13" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="101"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="32">
         <v>4374</v>
       </c>
@@ -4649,7 +4618,7 @@
       <c r="F13" s="30">
         <v>5386</v>
       </c>
-      <c r="G13" s="111"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="49">
         <v>5797</v>
       </c>
@@ -4659,14 +4628,14 @@
       <c r="J13" s="50">
         <v>7038</v>
       </c>
-      <c r="K13" s="111"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="29">
         <v>8955</v>
       </c>
       <c r="M13" s="30">
         <v>11815</v>
       </c>
-      <c r="N13" s="111"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="49">
         <v>6491</v>
       </c>
@@ -4682,7 +4651,7 @@
       <c r="S13" s="51">
         <v>2286</v>
       </c>
-      <c r="T13" s="111"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="32">
         <v>4973</v>
       </c>
@@ -4696,13 +4665,13 @@
         <v>13064</v>
       </c>
       <c r="Y13" s="97"/>
-      <c r="Z13" s="93"/>
+      <c r="Z13" s="99"/>
     </row>
-    <row r="14" spans="1:26" ht="8" customHeight="1">
-      <c r="A14" s="94" t="s">
+    <row r="14" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="34">
         <v>8996</v>
       </c>
@@ -4715,7 +4684,7 @@
       <c r="F14" s="37">
         <v>10609</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="77">
         <v>49088</v>
       </c>
       <c r="H14" s="39">
@@ -4727,7 +4696,7 @@
       <c r="J14" s="41">
         <v>13584</v>
       </c>
-      <c r="K14" s="112">
+      <c r="K14" s="74">
         <v>36269</v>
       </c>
       <c r="L14" s="42">
@@ -4736,7 +4705,7 @@
       <c r="M14" s="37">
         <v>22497</v>
       </c>
-      <c r="N14" s="115">
+      <c r="N14" s="77">
         <v>39769</v>
       </c>
       <c r="O14" s="39">
@@ -4754,7 +4723,7 @@
       <c r="S14" s="52">
         <v>4610</v>
       </c>
-      <c r="T14" s="112">
+      <c r="T14" s="74">
         <v>81020</v>
       </c>
       <c r="U14" s="34">
@@ -4776,12 +4745,12 @@
         <v>271545</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="8" customHeight="1">
-      <c r="A15" s="86" t="s">
+    <row r="15" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="88" t="s">
-        <v>157</v>
+      <c r="B15" s="92" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="20">
         <v>5157</v>
@@ -4795,7 +4764,7 @@
       <c r="F15" s="18">
         <v>6167</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="94" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="47">
@@ -4807,7 +4776,7 @@
       <c r="J15" s="16">
         <v>7208</v>
       </c>
-      <c r="K15" s="110" t="s">
+      <c r="K15" s="94" t="s">
         <v>62</v>
       </c>
       <c r="L15" s="17">
@@ -4816,7 +4785,7 @@
       <c r="M15" s="18">
         <v>12100</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="94" t="s">
         <v>63</v>
       </c>
       <c r="O15" s="47">
@@ -4834,7 +4803,7 @@
       <c r="S15" s="48">
         <v>2663</v>
       </c>
-      <c r="T15" s="110" t="s">
+      <c r="T15" s="94" t="s">
         <v>64</v>
       </c>
       <c r="U15" s="20">
@@ -4852,13 +4821,13 @@
       <c r="Y15" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="92" t="s">
+      <c r="Z15" s="98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="8" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="89"/>
+    <row r="16" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="101"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="32">
         <v>4697</v>
       </c>
@@ -4871,7 +4840,7 @@
       <c r="F16" s="30">
         <v>5936</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="49">
         <v>5435</v>
       </c>
@@ -4881,14 +4850,14 @@
       <c r="J16" s="50">
         <v>7025</v>
       </c>
-      <c r="K16" s="111"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="29">
         <v>10087</v>
       </c>
       <c r="M16" s="30">
         <v>13107</v>
       </c>
-      <c r="N16" s="111"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="49">
         <v>6439</v>
       </c>
@@ -4904,7 +4873,7 @@
       <c r="S16" s="51">
         <v>2703</v>
       </c>
-      <c r="T16" s="111"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="32">
         <v>6189</v>
       </c>
@@ -4918,13 +4887,13 @@
         <v>12250</v>
       </c>
       <c r="Y16" s="97"/>
-      <c r="Z16" s="93"/>
+      <c r="Z16" s="99"/>
     </row>
-    <row r="17" spans="1:26" ht="8" customHeight="1">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="34">
         <v>9854</v>
       </c>
@@ -4937,7 +4906,7 @@
       <c r="F17" s="37">
         <v>12103</v>
       </c>
-      <c r="G17" s="115">
+      <c r="G17" s="77">
         <v>54190</v>
       </c>
       <c r="H17" s="39">
@@ -4949,7 +4918,7 @@
       <c r="J17" s="41">
         <v>14233</v>
       </c>
-      <c r="K17" s="112">
+      <c r="K17" s="74">
         <v>36433</v>
       </c>
       <c r="L17" s="42">
@@ -4958,7 +4927,7 @@
       <c r="M17" s="37">
         <v>25207</v>
       </c>
-      <c r="N17" s="115">
+      <c r="N17" s="77">
         <v>44749</v>
       </c>
       <c r="O17" s="39">
@@ -4976,7 +4945,7 @@
       <c r="S17" s="52">
         <v>5366</v>
       </c>
-      <c r="T17" s="112">
+      <c r="T17" s="74">
         <v>84423</v>
       </c>
       <c r="U17" s="34">
@@ -4998,12 +4967,12 @@
         <v>291324</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="8" customHeight="1">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="88" t="s">
-        <v>156</v>
+      <c r="B18" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C18" s="20">
         <v>6725</v>
@@ -5017,7 +4986,7 @@
       <c r="F18" s="18">
         <v>8677</v>
       </c>
-      <c r="G18" s="110" t="s">
+      <c r="G18" s="94" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="47">
@@ -5029,7 +4998,7 @@
       <c r="J18" s="16">
         <v>9268</v>
       </c>
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="94" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="17">
@@ -5038,7 +5007,7 @@
       <c r="M18" s="18">
         <v>15699</v>
       </c>
-      <c r="N18" s="110" t="s">
+      <c r="N18" s="94" t="s">
         <v>71</v>
       </c>
       <c r="O18" s="47">
@@ -5056,7 +5025,7 @@
       <c r="S18" s="48">
         <v>3322</v>
       </c>
-      <c r="T18" s="110" t="s">
+      <c r="T18" s="94" t="s">
         <v>72</v>
       </c>
       <c r="U18" s="20">
@@ -5074,13 +5043,13 @@
       <c r="Y18" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="Z18" s="92" t="s">
+      <c r="Z18" s="98" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="8" customHeight="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="89"/>
+    <row r="19" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="101"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="32">
         <v>6364</v>
       </c>
@@ -5093,7 +5062,7 @@
       <c r="F19" s="30">
         <v>8189</v>
       </c>
-      <c r="G19" s="111"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="49">
         <v>5853</v>
       </c>
@@ -5103,14 +5072,14 @@
       <c r="J19" s="50">
         <v>8958</v>
       </c>
-      <c r="K19" s="111"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="29">
         <v>14785</v>
       </c>
       <c r="M19" s="30">
         <v>16738</v>
       </c>
-      <c r="N19" s="111"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="49">
         <v>8576</v>
       </c>
@@ -5126,7 +5095,7 @@
       <c r="S19" s="51">
         <v>3574</v>
       </c>
-      <c r="T19" s="111"/>
+      <c r="T19" s="95"/>
       <c r="U19" s="32">
         <v>9517</v>
       </c>
@@ -5140,13 +5109,13 @@
         <v>18726</v>
       </c>
       <c r="Y19" s="97"/>
-      <c r="Z19" s="93"/>
+      <c r="Z19" s="99"/>
     </row>
-    <row r="20" spans="1:26" ht="8" customHeight="1">
-      <c r="A20" s="94" t="s">
+    <row r="20" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="34">
         <v>13089</v>
       </c>
@@ -5159,7 +5128,7 @@
       <c r="F20" s="37">
         <v>16866</v>
       </c>
-      <c r="G20" s="115">
+      <c r="G20" s="77">
         <v>74826</v>
       </c>
       <c r="H20" s="39">
@@ -5171,7 +5140,7 @@
       <c r="J20" s="41">
         <v>18226</v>
       </c>
-      <c r="K20" s="112">
+      <c r="K20" s="74">
         <v>45915</v>
       </c>
       <c r="L20" s="42">
@@ -5180,7 +5149,7 @@
       <c r="M20" s="37">
         <v>32437</v>
       </c>
-      <c r="N20" s="115">
+      <c r="N20" s="77">
         <v>61380</v>
       </c>
       <c r="O20" s="39">
@@ -5198,7 +5167,7 @@
       <c r="S20" s="52">
         <v>6896</v>
       </c>
-      <c r="T20" s="112">
+      <c r="T20" s="74">
         <v>115324</v>
       </c>
       <c r="U20" s="34">
@@ -5220,12 +5189,12 @@
         <v>403420</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="8" customHeight="1">
-      <c r="A21" s="86" t="s">
+    <row r="21" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="88" t="s">
-        <v>156</v>
+      <c r="B21" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C21" s="20">
         <v>6871</v>
@@ -5239,7 +5208,7 @@
       <c r="F21" s="18">
         <v>8775</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="94" t="s">
         <v>77</v>
       </c>
       <c r="H21" s="47">
@@ -5251,7 +5220,7 @@
       <c r="J21" s="16">
         <v>9025</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="94" t="s">
         <v>78</v>
       </c>
       <c r="L21" s="17">
@@ -5260,7 +5229,7 @@
       <c r="M21" s="18">
         <v>16214</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="94" t="s">
         <v>79</v>
       </c>
       <c r="O21" s="47">
@@ -5278,7 +5247,7 @@
       <c r="S21" s="48">
         <v>3143</v>
       </c>
-      <c r="T21" s="110" t="s">
+      <c r="T21" s="94" t="s">
         <v>80</v>
       </c>
       <c r="U21" s="20">
@@ -5296,13 +5265,13 @@
       <c r="Y21" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="Z21" s="92" t="s">
+      <c r="Z21" s="98" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="8" customHeight="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="89"/>
+    <row r="22" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="101"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="32">
         <v>7084</v>
       </c>
@@ -5315,7 +5284,7 @@
       <c r="F22" s="30">
         <v>8836</v>
       </c>
-      <c r="G22" s="111"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="49">
         <v>5926</v>
       </c>
@@ -5325,14 +5294,14 @@
       <c r="J22" s="50">
         <v>9186</v>
       </c>
-      <c r="K22" s="111"/>
+      <c r="K22" s="95"/>
       <c r="L22" s="29">
         <v>15166</v>
       </c>
       <c r="M22" s="30">
         <v>16979</v>
       </c>
-      <c r="N22" s="111"/>
+      <c r="N22" s="95"/>
       <c r="O22" s="49">
         <v>8214</v>
       </c>
@@ -5348,7 +5317,7 @@
       <c r="S22" s="51">
         <v>3683</v>
       </c>
-      <c r="T22" s="111"/>
+      <c r="T22" s="95"/>
       <c r="U22" s="32">
         <v>10762</v>
       </c>
@@ -5362,13 +5331,13 @@
         <v>21942</v>
       </c>
       <c r="Y22" s="97"/>
-      <c r="Z22" s="93"/>
+      <c r="Z22" s="99"/>
     </row>
-    <row r="23" spans="1:26" ht="8" customHeight="1">
-      <c r="A23" s="94" t="s">
+    <row r="23" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="34">
         <v>13955</v>
       </c>
@@ -5381,7 +5350,7 @@
       <c r="F23" s="37">
         <v>17611</v>
       </c>
-      <c r="G23" s="115">
+      <c r="G23" s="77">
         <v>78991</v>
       </c>
       <c r="H23" s="39">
@@ -5393,7 +5362,7 @@
       <c r="J23" s="41">
         <v>18211</v>
       </c>
-      <c r="K23" s="112">
+      <c r="K23" s="74">
         <v>48528</v>
       </c>
       <c r="L23" s="42">
@@ -5402,7 +5371,7 @@
       <c r="M23" s="37">
         <v>33193</v>
       </c>
-      <c r="N23" s="115">
+      <c r="N23" s="77">
         <v>62119</v>
       </c>
       <c r="O23" s="39">
@@ -5420,7 +5389,7 @@
       <c r="S23" s="52">
         <v>6826</v>
       </c>
-      <c r="T23" s="112">
+      <c r="T23" s="74">
         <v>119325</v>
       </c>
       <c r="U23" s="34">
@@ -5442,12 +5411,12 @@
         <v>424552</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="8" customHeight="1">
-      <c r="A24" s="86" t="s">
+    <row r="24" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="88" t="s">
-        <v>156</v>
+      <c r="B24" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C24" s="20">
         <v>5999</v>
@@ -5461,7 +5430,7 @@
       <c r="F24" s="18">
         <v>7202</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="94" t="s">
         <v>85</v>
       </c>
       <c r="H24" s="47">
@@ -5473,7 +5442,7 @@
       <c r="J24" s="16">
         <v>8108</v>
       </c>
-      <c r="K24" s="110" t="s">
+      <c r="K24" s="94" t="s">
         <v>86</v>
       </c>
       <c r="L24" s="17">
@@ -5482,7 +5451,7 @@
       <c r="M24" s="18">
         <v>13878</v>
       </c>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="94" t="s">
         <v>87</v>
       </c>
       <c r="O24" s="47">
@@ -5500,7 +5469,7 @@
       <c r="S24" s="48">
         <v>2355</v>
       </c>
-      <c r="T24" s="110" t="s">
+      <c r="T24" s="94" t="s">
         <v>88</v>
       </c>
       <c r="U24" s="20">
@@ -5518,13 +5487,13 @@
       <c r="Y24" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="Z24" s="92" t="s">
+      <c r="Z24" s="98" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="8" customHeight="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="89"/>
+    <row r="25" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="101"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="32">
         <v>6229</v>
       </c>
@@ -5537,7 +5506,7 @@
       <c r="F25" s="30">
         <v>7514</v>
       </c>
-      <c r="G25" s="111"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="49">
         <v>5538</v>
       </c>
@@ -5547,14 +5516,14 @@
       <c r="J25" s="50">
         <v>7865</v>
       </c>
-      <c r="K25" s="111"/>
+      <c r="K25" s="95"/>
       <c r="L25" s="29">
         <v>10979</v>
       </c>
       <c r="M25" s="30">
         <v>14144</v>
       </c>
-      <c r="N25" s="111"/>
+      <c r="N25" s="95"/>
       <c r="O25" s="49">
         <v>6291</v>
       </c>
@@ -5570,7 +5539,7 @@
       <c r="S25" s="51">
         <v>2981</v>
       </c>
-      <c r="T25" s="111"/>
+      <c r="T25" s="95"/>
       <c r="U25" s="32">
         <v>8320</v>
       </c>
@@ -5584,13 +5553,13 @@
         <v>18650</v>
       </c>
       <c r="Y25" s="97"/>
-      <c r="Z25" s="93"/>
+      <c r="Z25" s="99"/>
     </row>
-    <row r="26" spans="1:26" ht="8" customHeight="1">
-      <c r="A26" s="94" t="s">
+    <row r="26" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="34">
         <v>12228</v>
       </c>
@@ -5603,7 +5572,7 @@
       <c r="F26" s="37">
         <v>14716</v>
       </c>
-      <c r="G26" s="115">
+      <c r="G26" s="77">
         <v>68397</v>
       </c>
       <c r="H26" s="39">
@@ -5615,7 +5584,7 @@
       <c r="J26" s="41">
         <v>15973</v>
       </c>
-      <c r="K26" s="112">
+      <c r="K26" s="74">
         <v>42558</v>
       </c>
       <c r="L26" s="42">
@@ -5624,7 +5593,7 @@
       <c r="M26" s="37">
         <v>28022</v>
       </c>
-      <c r="N26" s="115">
+      <c r="N26" s="77">
         <v>49182</v>
       </c>
       <c r="O26" s="39">
@@ -5642,7 +5611,7 @@
       <c r="S26" s="52">
         <v>5336</v>
       </c>
-      <c r="T26" s="112">
+      <c r="T26" s="74">
         <v>94918</v>
       </c>
       <c r="U26" s="34">
@@ -5664,12 +5633,12 @@
         <v>343615</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="8" customHeight="1">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>156</v>
+      <c r="B27" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C27" s="20">
         <v>4699</v>
@@ -5683,7 +5652,7 @@
       <c r="F27" s="18">
         <v>5656</v>
       </c>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="94" t="s">
         <v>93</v>
       </c>
       <c r="H27" s="47">
@@ -5695,7 +5664,7 @@
       <c r="J27" s="16">
         <v>7305</v>
       </c>
-      <c r="K27" s="110" t="s">
+      <c r="K27" s="94" t="s">
         <v>94</v>
       </c>
       <c r="L27" s="17">
@@ -5704,7 +5673,7 @@
       <c r="M27" s="18">
         <v>11365</v>
       </c>
-      <c r="N27" s="110" t="s">
+      <c r="N27" s="94" t="s">
         <v>95</v>
       </c>
       <c r="O27" s="47">
@@ -5722,7 +5691,7 @@
       <c r="S27" s="48">
         <v>1584</v>
       </c>
-      <c r="T27" s="110" t="s">
+      <c r="T27" s="94" t="s">
         <v>96</v>
       </c>
       <c r="U27" s="20">
@@ -5740,13 +5709,13 @@
       <c r="Y27" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="Z27" s="92" t="s">
+      <c r="Z27" s="98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="8" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="89"/>
+    <row r="28" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="101"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="32">
         <v>5488</v>
       </c>
@@ -5759,7 +5728,7 @@
       <c r="F28" s="30">
         <v>5902</v>
       </c>
-      <c r="G28" s="111"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="49">
         <v>4941</v>
       </c>
@@ -5769,14 +5738,14 @@
       <c r="J28" s="50">
         <v>7225</v>
       </c>
-      <c r="K28" s="111"/>
+      <c r="K28" s="95"/>
       <c r="L28" s="29">
         <v>8189</v>
       </c>
       <c r="M28" s="30">
         <v>11505</v>
       </c>
-      <c r="N28" s="111"/>
+      <c r="N28" s="95"/>
       <c r="O28" s="49">
         <v>5213</v>
       </c>
@@ -5792,7 +5761,7 @@
       <c r="S28" s="51">
         <v>2144</v>
       </c>
-      <c r="T28" s="111"/>
+      <c r="T28" s="95"/>
       <c r="U28" s="32">
         <v>5166</v>
       </c>
@@ -5806,13 +5775,13 @@
         <v>14574</v>
       </c>
       <c r="Y28" s="97"/>
-      <c r="Z28" s="93"/>
+      <c r="Z28" s="99"/>
     </row>
-    <row r="29" spans="1:26" ht="8" customHeight="1">
-      <c r="A29" s="94" t="s">
+    <row r="29" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="34">
         <v>10187</v>
       </c>
@@ -5825,7 +5794,7 @@
       <c r="F29" s="37">
         <v>11558</v>
       </c>
-      <c r="G29" s="115">
+      <c r="G29" s="77">
         <v>57375</v>
       </c>
       <c r="H29" s="39">
@@ -5837,7 +5806,7 @@
       <c r="J29" s="41">
         <v>14530</v>
       </c>
-      <c r="K29" s="112">
+      <c r="K29" s="74">
         <v>36642</v>
       </c>
       <c r="L29" s="42">
@@ -5846,7 +5815,7 @@
       <c r="M29" s="37">
         <v>22870</v>
       </c>
-      <c r="N29" s="115">
+      <c r="N29" s="77">
         <v>38986</v>
       </c>
       <c r="O29" s="39">
@@ -5864,7 +5833,7 @@
       <c r="S29" s="52">
         <v>3728</v>
       </c>
-      <c r="T29" s="112">
+      <c r="T29" s="74">
         <v>69200</v>
       </c>
       <c r="U29" s="34">
@@ -5886,12 +5855,12 @@
         <v>262013</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="8" customHeight="1">
-      <c r="A30" s="86" t="s">
+    <row r="30" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="88" t="s">
-        <v>155</v>
+      <c r="B30" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="C30" s="20">
         <v>2305</v>
@@ -5905,7 +5874,7 @@
       <c r="F30" s="18">
         <v>3082</v>
       </c>
-      <c r="G30" s="110" t="s">
+      <c r="G30" s="94" t="s">
         <v>101</v>
       </c>
       <c r="H30" s="47">
@@ -5917,7 +5886,7 @@
       <c r="J30" s="16">
         <v>4782</v>
       </c>
-      <c r="K30" s="110" t="s">
+      <c r="K30" s="94" t="s">
         <v>102</v>
       </c>
       <c r="L30" s="17">
@@ -5926,7 +5895,7 @@
       <c r="M30" s="18">
         <v>7706</v>
       </c>
-      <c r="N30" s="110" t="s">
+      <c r="N30" s="94" t="s">
         <v>103</v>
       </c>
       <c r="O30" s="47">
@@ -5944,7 +5913,7 @@
       <c r="S30" s="19">
         <v>833</v>
       </c>
-      <c r="T30" s="110" t="s">
+      <c r="T30" s="94" t="s">
         <v>104</v>
       </c>
       <c r="U30" s="20">
@@ -5962,13 +5931,13 @@
       <c r="Y30" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="Z30" s="92" t="s">
+      <c r="Z30" s="98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="8" customHeight="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="89"/>
+    <row r="31" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="101"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="32">
         <v>2717</v>
       </c>
@@ -5981,7 +5950,7 @@
       <c r="F31" s="30">
         <v>3248</v>
       </c>
-      <c r="G31" s="111"/>
+      <c r="G31" s="95"/>
       <c r="H31" s="49">
         <v>3392</v>
       </c>
@@ -5991,14 +5960,14 @@
       <c r="J31" s="50">
         <v>5000</v>
       </c>
-      <c r="K31" s="111"/>
+      <c r="K31" s="95"/>
       <c r="L31" s="29">
         <v>5745</v>
       </c>
       <c r="M31" s="30">
         <v>9247</v>
       </c>
-      <c r="N31" s="111"/>
+      <c r="N31" s="95"/>
       <c r="O31" s="49">
         <v>3625</v>
       </c>
@@ -6014,7 +5983,7 @@
       <c r="S31" s="51">
         <v>1151</v>
       </c>
-      <c r="T31" s="111"/>
+      <c r="T31" s="95"/>
       <c r="U31" s="32">
         <v>3036</v>
       </c>
@@ -6028,13 +5997,13 @@
         <v>8517</v>
       </c>
       <c r="Y31" s="97"/>
-      <c r="Z31" s="93"/>
+      <c r="Z31" s="99"/>
     </row>
-    <row r="32" spans="1:26" ht="8" customHeight="1">
-      <c r="A32" s="94" t="s">
+    <row r="32" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="34">
         <v>5022</v>
       </c>
@@ -6047,7 +6016,7 @@
       <c r="F32" s="37">
         <v>6330</v>
       </c>
-      <c r="G32" s="115">
+      <c r="G32" s="77">
         <v>31207</v>
       </c>
       <c r="H32" s="39">
@@ -6059,7 +6028,7 @@
       <c r="J32" s="41">
         <v>9782</v>
       </c>
-      <c r="K32" s="112">
+      <c r="K32" s="74">
         <v>23932</v>
       </c>
       <c r="L32" s="42">
@@ -6068,7 +6037,7 @@
       <c r="M32" s="37">
         <v>16953</v>
       </c>
-      <c r="N32" s="115">
+      <c r="N32" s="77">
         <v>28015</v>
       </c>
       <c r="O32" s="39">
@@ -6086,7 +6055,7 @@
       <c r="S32" s="52">
         <v>1984</v>
       </c>
-      <c r="T32" s="112">
+      <c r="T32" s="74">
         <v>42964</v>
       </c>
       <c r="U32" s="34">
@@ -6108,12 +6077,12 @@
         <v>158698</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="8" customHeight="1">
-      <c r="A33" s="86" t="s">
+    <row r="33" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="88" t="s">
-        <v>156</v>
+      <c r="B33" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C33" s="20">
         <v>2353</v>
@@ -6127,7 +6096,7 @@
       <c r="F33" s="18">
         <v>3334</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="94" t="s">
         <v>109</v>
       </c>
       <c r="H33" s="47">
@@ -6139,7 +6108,7 @@
       <c r="J33" s="16">
         <v>4971</v>
       </c>
-      <c r="K33" s="110" t="s">
+      <c r="K33" s="94" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="17">
@@ -6148,7 +6117,7 @@
       <c r="M33" s="18">
         <v>8532</v>
       </c>
-      <c r="N33" s="110" t="s">
+      <c r="N33" s="94" t="s">
         <v>111</v>
       </c>
       <c r="O33" s="47">
@@ -6166,7 +6135,7 @@
       <c r="S33" s="19">
         <v>890</v>
       </c>
-      <c r="T33" s="110" t="s">
+      <c r="T33" s="94" t="s">
         <v>112</v>
       </c>
       <c r="U33" s="20">
@@ -6184,13 +6153,13 @@
       <c r="Y33" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="Z33" s="92" t="s">
+      <c r="Z33" s="98" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="8" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="89"/>
+    <row r="34" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="101"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="32">
         <v>2855</v>
       </c>
@@ -6203,7 +6172,7 @@
       <c r="F34" s="30">
         <v>3600</v>
       </c>
-      <c r="G34" s="111"/>
+      <c r="G34" s="95"/>
       <c r="H34" s="49">
         <v>3687</v>
       </c>
@@ -6213,14 +6182,14 @@
       <c r="J34" s="50">
         <v>5536</v>
       </c>
-      <c r="K34" s="111"/>
+      <c r="K34" s="95"/>
       <c r="L34" s="29">
         <v>6780</v>
       </c>
       <c r="M34" s="30">
         <v>10521</v>
       </c>
-      <c r="N34" s="111"/>
+      <c r="N34" s="95"/>
       <c r="O34" s="49">
         <v>3582</v>
       </c>
@@ -6236,7 +6205,7 @@
       <c r="S34" s="51">
         <v>1150</v>
       </c>
-      <c r="T34" s="111"/>
+      <c r="T34" s="95"/>
       <c r="U34" s="32">
         <v>2831</v>
       </c>
@@ -6250,13 +6219,13 @@
         <v>7415</v>
       </c>
       <c r="Y34" s="97"/>
-      <c r="Z34" s="93"/>
+      <c r="Z34" s="99"/>
     </row>
-    <row r="35" spans="1:26" ht="8" customHeight="1">
-      <c r="A35" s="94" t="s">
+    <row r="35" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="34">
         <v>5208</v>
       </c>
@@ -6269,7 +6238,7 @@
       <c r="F35" s="37">
         <v>6934</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="77">
         <v>32861</v>
       </c>
       <c r="H35" s="39">
@@ -6281,7 +6250,7 @@
       <c r="J35" s="41">
         <v>10507</v>
       </c>
-      <c r="K35" s="112">
+      <c r="K35" s="74">
         <v>26695</v>
       </c>
       <c r="L35" s="42">
@@ -6290,7 +6259,7 @@
       <c r="M35" s="37">
         <v>19053</v>
       </c>
-      <c r="N35" s="115">
+      <c r="N35" s="77">
         <v>32889</v>
       </c>
       <c r="O35" s="39">
@@ -6308,7 +6277,7 @@
       <c r="S35" s="52">
         <v>2040</v>
       </c>
-      <c r="T35" s="112">
+      <c r="T35" s="74">
         <v>39691</v>
       </c>
       <c r="U35" s="34">
@@ -6330,12 +6299,12 @@
         <v>161938</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="8" customHeight="1">
-      <c r="A36" s="98" t="s">
+    <row r="36" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="88" t="s">
-        <v>156</v>
+      <c r="B36" s="92" t="s">
+        <v>152</v>
       </c>
       <c r="C36" s="20">
         <v>5588</v>
@@ -6349,7 +6318,7 @@
       <c r="F36" s="18">
         <v>9407</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="94" t="s">
         <v>117</v>
       </c>
       <c r="H36" s="47">
@@ -6361,7 +6330,7 @@
       <c r="J36" s="16">
         <v>10976</v>
       </c>
-      <c r="K36" s="110" t="s">
+      <c r="K36" s="94" t="s">
         <v>118</v>
       </c>
       <c r="L36" s="17">
@@ -6370,7 +6339,7 @@
       <c r="M36" s="18">
         <v>22144</v>
       </c>
-      <c r="N36" s="110" t="s">
+      <c r="N36" s="94" t="s">
         <v>119</v>
       </c>
       <c r="O36" s="47">
@@ -6388,7 +6357,7 @@
       <c r="S36" s="48">
         <v>2894</v>
       </c>
-      <c r="T36" s="110" t="s">
+      <c r="T36" s="94" t="s">
         <v>120</v>
       </c>
       <c r="U36" s="20">
@@ -6406,13 +6375,13 @@
       <c r="Y36" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="Z36" s="92" t="s">
+      <c r="Z36" s="98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="8" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="89"/>
+    <row r="37" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="91"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="32">
         <v>6331</v>
       </c>
@@ -6425,7 +6394,7 @@
       <c r="F37" s="30">
         <v>8555</v>
       </c>
-      <c r="G37" s="111"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="49">
         <v>7848</v>
       </c>
@@ -6435,14 +6404,14 @@
       <c r="J37" s="50">
         <v>11529</v>
       </c>
-      <c r="K37" s="111"/>
+      <c r="K37" s="95"/>
       <c r="L37" s="29">
         <v>18675</v>
       </c>
       <c r="M37" s="30">
         <v>22675</v>
       </c>
-      <c r="N37" s="111"/>
+      <c r="N37" s="95"/>
       <c r="O37" s="49">
         <v>6366</v>
       </c>
@@ -6458,7 +6427,7 @@
       <c r="S37" s="51">
         <v>2624</v>
       </c>
-      <c r="T37" s="111"/>
+      <c r="T37" s="95"/>
       <c r="U37" s="32">
         <v>6283</v>
       </c>
@@ -6472,13 +6441,13 @@
         <v>13435</v>
       </c>
       <c r="Y37" s="97"/>
-      <c r="Z37" s="93"/>
+      <c r="Z37" s="99"/>
     </row>
-    <row r="38" spans="1:26" ht="8" customHeight="1">
-      <c r="A38" s="100" t="s">
+    <row r="38" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="34">
         <v>11919</v>
       </c>
@@ -6491,7 +6460,7 @@
       <c r="F38" s="37">
         <v>17962</v>
       </c>
-      <c r="G38" s="115">
+      <c r="G38" s="77">
         <v>77503</v>
       </c>
       <c r="H38" s="39">
@@ -6503,7 +6472,7 @@
       <c r="J38" s="41">
         <v>22505</v>
       </c>
-      <c r="K38" s="112">
+      <c r="K38" s="74">
         <v>62767</v>
       </c>
       <c r="L38" s="42">
@@ -6512,7 +6481,7 @@
       <c r="M38" s="37">
         <v>44819</v>
       </c>
-      <c r="N38" s="115">
+      <c r="N38" s="77">
         <v>84734</v>
       </c>
       <c r="O38" s="39">
@@ -6530,7 +6499,7 @@
       <c r="S38" s="52">
         <v>5518</v>
       </c>
-      <c r="T38" s="112">
+      <c r="T38" s="74">
         <v>80688</v>
       </c>
       <c r="U38" s="34">
@@ -6552,12 +6521,12 @@
         <v>372239</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" customHeight="1">
+    <row r="39" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>125</v>
@@ -6571,7 +6540,7 @@
       <c r="F39" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="113" t="s">
+      <c r="G39" s="75" t="s">
         <v>129</v>
       </c>
       <c r="H39" s="59" t="s">
@@ -6583,7 +6552,7 @@
       <c r="J39" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="113" t="s">
+      <c r="K39" s="75" t="s">
         <v>133</v>
       </c>
       <c r="L39" s="64" t="s">
@@ -6592,7 +6561,7 @@
       <c r="M39" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="N39" s="113" t="s">
+      <c r="N39" s="75" t="s">
         <v>136</v>
       </c>
       <c r="O39" s="59" t="s">
@@ -6610,7 +6579,7 @@
       <c r="S39" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="T39" s="113" t="s">
+      <c r="T39" s="75" t="s">
         <v>142</v>
       </c>
       <c r="U39" s="64" t="s">
@@ -6632,28 +6601,36 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="12" customHeight="1">
-      <c r="A40" s="102" t="s">
+    <row r="40" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="66">
         <v>104683</v>
       </c>
-      <c r="D40" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="116">
+      <c r="D40" s="79">
+        <v>63702</v>
+      </c>
+      <c r="E40" s="79">
+        <v>304409</v>
+      </c>
+      <c r="F40" s="80">
+        <v>134113</v>
+      </c>
+      <c r="G40" s="78">
         <v>606907</v>
       </c>
-      <c r="H40" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40" s="107"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="114">
+      <c r="H40" s="83">
+        <v>107610</v>
+      </c>
+      <c r="I40" s="81">
+        <v>151509</v>
+      </c>
+      <c r="J40" s="82">
+        <v>158116</v>
+      </c>
+      <c r="K40" s="76">
         <v>417235</v>
       </c>
       <c r="L40" s="68">
@@ -6662,7 +6639,7 @@
       <c r="M40" s="69">
         <v>287659</v>
       </c>
-      <c r="N40" s="116">
+      <c r="N40" s="78">
         <v>514973</v>
       </c>
       <c r="O40" s="70">
@@ -6674,19 +6651,27 @@
       <c r="Q40" s="71">
         <v>220490</v>
       </c>
-      <c r="R40" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="S40" s="105"/>
-      <c r="T40" s="114">
+      <c r="R40" s="79">
+        <v>244038</v>
+      </c>
+      <c r="S40" s="80">
+        <v>49514</v>
+      </c>
+      <c r="T40" s="76">
         <v>876811</v>
       </c>
-      <c r="U40" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="108"/>
+      <c r="U40" s="83">
+        <v>135202</v>
+      </c>
+      <c r="V40" s="81">
+        <v>143724</v>
+      </c>
+      <c r="W40" s="81">
+        <v>178958</v>
+      </c>
+      <c r="X40" s="82">
+        <v>312117</v>
+      </c>
       <c r="Y40" s="67">
         <v>770001</v>
       </c>
@@ -6694,123 +6679,18 @@
         <v>3185927</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+  <mergeCells count="117">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
@@ -6827,14 +6707,110 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>